--- a/documents/TWISTEFS_TLF_Tracker.xlsx
+++ b/documents/TWISTEFS_TLF_Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edwardslifesciences-my.sharepoint.com/personal/luke_hall_edwards_com/Documents/lhall/TWIST_EFS_2025_11_DSMB/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edwardslifesciences-my.sharepoint.com/personal/luke_hall_edwards_com/Documents/lhall/TWIST_EFS_DSMB_2025NOV/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{38BB44E1-1660-44DF-A716-477419C2FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{990D7027-FAB1-4A8B-927A-3AFBC18083E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="501" xr2:uid="{7D5DC183-1715-4358-840C-E50BDF8D346D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="501" xr2:uid="{7D5DC183-1715-4358-840C-E50BDF8D346D}"/>
   </bookViews>
   <sheets>
     <sheet name="Nov 2025 DSMB" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="107" uniqueCount="69">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="123" uniqueCount="77">
   <si>
     <t>TLF ID</t>
   </si>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t xml:space="preserve">Isabelle </t>
+  </si>
+  <si>
+    <t>ADCEC</t>
+  </si>
+  <si>
+    <t>t8_CEC_MAEs.R</t>
+  </si>
+  <si>
+    <t>t4_devicesuccess.R</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>t14_MRgrade.R</t>
+  </si>
+  <si>
+    <t>ADECHO</t>
+  </si>
+  <si>
+    <t>mk_adcec.R</t>
+  </si>
+  <si>
+    <t>mk_adecho.R</t>
   </si>
 </sst>
 </file>
@@ -933,8 +957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D51E3E21-9A89-45F8-B059-BB724E250B3B}" name="Table2" displayName="Table2" ref="A1:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:J24" xr:uid="{D51E3E21-9A89-45F8-B059-BB724E250B3B}">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D51E3E21-9A89-45F8-B059-BB724E250B3B}" name="Table2" displayName="Table2" ref="A1:J26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:J26" xr:uid="{D51E3E21-9A89-45F8-B059-BB724E250B3B}">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
@@ -1277,23 +1301,23 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="74.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" customWidth="1"/>
+    <col min="3" max="3" width="74.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
@@ -1325,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
@@ -1355,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -1387,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1410,7 +1434,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5" t="b">
         <v>0</v>
@@ -1419,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -1435,10 +1459,12 @@
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>0</v>
@@ -1447,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -1499,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -1525,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1538,11 +1564,15 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="b">
         <v>0</v>
@@ -1551,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1564,8 +1594,12 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="5" t="b">
         <v>0</v>
@@ -1577,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -1605,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
@@ -1637,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
@@ -1663,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>48</v>
       </c>
@@ -1695,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
@@ -1711,10 +1745,12 @@
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5" t="b">
         <v>0</v>
@@ -1723,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -1749,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>49</v>
       </c>
@@ -1775,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -1801,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>49</v>
       </c>
@@ -1827,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -1853,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
@@ -1883,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>52</v>
       </c>
@@ -1915,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
@@ -1947,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
@@ -1979,7 +2015,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
     </row>
   </sheetData>
@@ -1998,6 +2094,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100701F59F9340E134CB56A698DB5CE351F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74785cd11ad8123a18f986e4693e9cb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63de8842-d18f-4cb7-9932-99357d904ed5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb95e3882628aea94ad7813d0daf7d94" ns2:_="">
     <xsd:import namespace="63de8842-d18f-4cb7-9932-99357d904ed5"/>
@@ -2135,15 +2240,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{8279B281-16AE-4A11-ABFA-27AB9738E4C6}">
   <ds:schemaRefs>
@@ -2161,6 +2257,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{E4C0D65B-11D3-4149-A2C2-91A85169A369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{3D44F084-A812-440C-AD0D-033922E73931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2178,14 +2282,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{E4C0D65B-11D3-4149-A2C2-91A85169A369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c8fe7995-06f0-4bdf-8f2a-0c8a7986480d}" enabled="0" method="" siteId="{c8fe7995-06f0-4bdf-8f2a-0c8a7986480d}" removed="1"/>
